--- a/biology/Zoologie/Cicerocrinus/Cicerocrinus.xlsx
+++ b/biology/Zoologie/Cicerocrinus/Cicerocrinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cicerocrinus est un genre éteint de crinoïdes de la famille des Pisocrinidae et de l'ordre des Pisocrinida.
 Selon Paleobiology Database, le genre comporte deux espèces, C. anglicus et C. elegans. Les deux espèces se rencontrent dans des terrains datant du Silurien trouvés au Royaume-Uni.
